--- a/doc/テスト仕様書/04_テスト仕様書_テスト結果報告書_C4.xlsx
+++ b/doc/テスト仕様書/04_テスト仕様書_テスト結果報告書_C4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34324DDC-2AF6-40F7-B76D-2E60B29313A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1F3E10-F500-4EAF-81E7-201BB5968309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="120">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -400,9 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力された内容が「テスト」として正しく入力される</t>
-  </si>
-  <si>
     <t>「送信」ボタンを押す</t>
   </si>
   <si>
@@ -625,6 +622,56 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河野</t>
+    <rPh sb="0" eb="2">
+      <t>コウノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸山</t>
+    <rPh sb="0" eb="2">
+      <t>マルヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された内容が「テスト」として正しく入力される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戸川</t>
+    <rPh sb="0" eb="2">
+      <t>トガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤土</t>
+    <rPh sb="0" eb="1">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -747,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -767,6 +814,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1049,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1061,6 +1109,7 @@
     <col min="6" max="6" width="81" customWidth="1"/>
     <col min="7" max="7" width="59.796875" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.19921875" customWidth="1"/>
   </cols>
@@ -1123,9 +1172,15 @@
         <v>14</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="13">
+        <v>45467</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
@@ -1145,9 +1200,15 @@
         <v>14</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="13">
+        <v>45467</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
@@ -1167,9 +1228,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="13">
+        <v>45467</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
@@ -1189,9 +1256,15 @@
         <v>18</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="13">
+        <v>45467</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
@@ -1213,9 +1286,15 @@
         <v>14</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="13">
+        <v>45467</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
@@ -1235,9 +1314,15 @@
         <v>14</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="13">
+        <v>45467</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
@@ -1257,9 +1342,15 @@
         <v>14</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="13">
+        <v>45467</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
@@ -1279,9 +1370,15 @@
         <v>14</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="13">
+        <v>45467</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
@@ -1301,9 +1398,15 @@
         <v>14</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="13">
+        <v>45467</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
@@ -1323,9 +1426,15 @@
         <v>14</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="13">
+        <v>45467</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
@@ -1345,9 +1454,15 @@
         <v>14</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="13">
+        <v>45467</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
@@ -1367,9 +1482,15 @@
         <v>14</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13">
+        <v>45467</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
@@ -1378,20 +1499,26 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="13">
+        <v>45467</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
@@ -1400,20 +1527,26 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="13">
+        <v>45467</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
@@ -1425,15 +1558,21 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="13">
+        <v>45467</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
@@ -1445,15 +1584,21 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="13">
+        <v>45467</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
@@ -1462,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -1475,9 +1620,15 @@
         <v>31</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="13">
+        <v>45468</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -1497,9 +1648,15 @@
         <v>34</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="13">
+        <v>45468</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
@@ -1519,9 +1676,15 @@
         <v>36</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="13">
+        <v>45468</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
@@ -1541,9 +1704,15 @@
         <v>38</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="13">
+        <v>45468</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
@@ -1554,18 +1723,24 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="13">
+        <v>45468</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -1585,9 +1760,15 @@
         <v>41</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="13">
+        <v>45468</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
@@ -1607,9 +1788,15 @@
         <v>43</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="13">
+        <v>45468</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
@@ -1629,9 +1816,15 @@
         <v>45</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="13">
+        <v>45468</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
@@ -1651,9 +1844,15 @@
         <v>47</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="13">
+        <v>45468</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
@@ -1673,9 +1872,15 @@
         <v>49</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="13">
+        <v>45468</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -1695,9 +1900,15 @@
         <v>51</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="13">
+        <v>45468</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
@@ -1713,15 +1924,21 @@
         <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="13">
+        <v>45469</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
@@ -1741,9 +1958,15 @@
         <v>57</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="13">
+        <v>45470</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
@@ -1752,22 +1975,28 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="13">
+        <v>45467</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
@@ -1778,18 +2007,24 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="13">
+        <v>45467</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
@@ -1798,22 +2033,28 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="13">
+        <v>45469</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
@@ -1827,15 +2068,21 @@
         <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="13">
+        <v>45470</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
@@ -1846,18 +2093,24 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="13">
+        <v>45470</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
@@ -1868,18 +2121,24 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="13">
+        <v>45470</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
@@ -1893,15 +2152,21 @@
         <v>54</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="13">
+        <v>45470</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
@@ -1915,15 +2180,21 @@
         <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="13">
+        <v>45470</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
@@ -1934,18 +2205,24 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" s="13">
+        <v>45470</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
@@ -1954,22 +2231,28 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="13">
+        <v>45470</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
@@ -1981,15 +2264,21 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="13">
+        <v>45470</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
@@ -2001,15 +2290,21 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" s="13">
+        <v>45470</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
@@ -2021,15 +2316,21 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44" s="13">
+        <v>45470</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
@@ -2041,13 +2342,19 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="13">
+        <v>45470</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
@@ -2059,13 +2366,19 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" s="13">
+        <v>45470</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
